--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1054.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1054.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.967921856780614</v>
+        <v>1.337988972663879</v>
       </c>
       <c r="B1">
-        <v>2.484979161516423</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.852342436818864</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.730662132626314</v>
+        <v>1.290379643440247</v>
       </c>
       <c r="E1">
-        <v>1.593657812059707</v>
+        <v>0.8255844116210938</v>
       </c>
     </row>
   </sheetData>
